--- a/data.xlsx
+++ b/data.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\alkem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBF6DAFD-8486-47C9-9037-CA351EFBA28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3959D22-A98B-426B-B5DB-02F865850140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A9FDC42B-2BE1-4787-89C7-95E55C8D81ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA1C6956-C20F-44AD-AD4E-8D50BE0BD785}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="175">
   <si>
     <t>Product Name</t>
   </si>
@@ -57,6 +57,9 @@
     <t>ALKEM</t>
   </si>
   <si>
+    <t>ACECLOCACH TABLETS (10'S) 10'S</t>
+  </si>
+  <si>
     <t>ACEDAY-P TABLETS (10'S) 10'S</t>
   </si>
   <si>
@@ -117,6 +120,9 @@
     <t>ALKEM'S ORS NOVO ORANGE FLAVOU 200 ML</t>
   </si>
   <si>
+    <t>ALKEMCEF -CV DRY SYRUP (WITH W 30ML</t>
+  </si>
+  <si>
     <t>ALKEMCEF-50 DRY SYRUP 30 ML</t>
   </si>
   <si>
@@ -141,6 +147,12 @@
     <t>ALKEMNIM TABLETS (15'S) 15s</t>
   </si>
   <si>
+    <t>ALKEMNIM TABLETS (AMBER PVC) ( 15s</t>
+  </si>
+  <si>
+    <t>ALKEMSERT CREAM (10G) 10gm</t>
+  </si>
+  <si>
     <t>ALKEMVAN-1000 INJECTION (VIAL) VIAL</t>
   </si>
   <si>
@@ -228,6 +240,9 @@
     <t>COLIKEM-D INJECTION (2ML) AMPO 2ml</t>
   </si>
   <si>
+    <t>DDKEM 25 (1ML) AMPOULE 1ml</t>
+  </si>
+  <si>
     <t>DDKEM 50 (1ML) AMPOULE 1ml</t>
   </si>
   <si>
@@ -249,9 +264,15 @@
     <t>DICLOKEM P TABLET (Green 10'S) 10'S</t>
   </si>
   <si>
+    <t>DICLOKEM P TABLET (Milky White 10'S</t>
+  </si>
+  <si>
     <t>DICLOKEM PLUS GEL (30G) 30gm</t>
   </si>
   <si>
+    <t>ENTISEP (100ML) 100 ML</t>
+  </si>
+  <si>
     <t>ENTISEP BURN (15G) 15 g</t>
   </si>
   <si>
@@ -261,9 +282,15 @@
     <t>ETHAMKEM T TABLETS (10'S) 10's</t>
   </si>
   <si>
+    <t>ETHAMKEM TABLETS (10'S) 10's</t>
+  </si>
+  <si>
     <t>FERCEE SYRUP (200ML) 200ml</t>
   </si>
   <si>
+    <t>FERCEE SYRUP (300ML) 300ml</t>
+  </si>
+  <si>
     <t>FEROFAST INJ (5ML) 5ML</t>
   </si>
   <si>
@@ -303,6 +330,21 @@
     <t>KEMGLIPTIN-T 20 TABLETS (10'S) 10's</t>
   </si>
   <si>
+    <t>KEMGLIPTIN-TM 1000 TABLETS (10 10's</t>
+  </si>
+  <si>
+    <t>KEMGLIPTIN-TM 500 TABLETS (10' 10's</t>
+  </si>
+  <si>
+    <t>KEMNICOL 250 CAPSULES (10'S) 10'S</t>
+  </si>
+  <si>
+    <t>KEMNICOL 500 CAP (10'S)(YELLOW 10'S</t>
+  </si>
+  <si>
+    <t>KEMNICOL 500 CAPSULES (10'S) 10'S</t>
+  </si>
+  <si>
     <t>KEMOBET INJECTION (1ML) 1 ml</t>
   </si>
   <si>
@@ -369,6 +411,9 @@
     <t>NAKUF BLU (100ML) 100 ml</t>
   </si>
   <si>
+    <t>NAKUF DM (100ML) 100 ml</t>
+  </si>
+  <si>
     <t>NAKUF DX (100ML) 100 ml</t>
   </si>
   <si>
@@ -399,6 +444,9 @@
     <t>OMEERAN 150 TABLETS (30'S) 30's</t>
   </si>
   <si>
+    <t>OMEERAN ING 1X2ML</t>
+  </si>
+  <si>
     <t>OMEERAN SYRUP (100ML) 100 ml</t>
   </si>
   <si>
@@ -435,6 +483,9 @@
     <t>PARABOOST-500 TABLETS (10'S) 10s</t>
   </si>
   <si>
+    <t>PARABOOST-650 TABLETS (10'S) 10'S</t>
+  </si>
+  <si>
     <t>PARABOOST-650MG TABLTS (20'S) 20'S</t>
   </si>
   <si>
@@ -459,6 +510,9 @@
     <t>PREDNIKEM 40 (VIAL) Vial</t>
   </si>
   <si>
+    <t>PREDNIKEM 8 (10'S) 10'S</t>
+  </si>
+  <si>
     <t>PRINT CLINDAKEM ACNE GEL POSTE 1</t>
   </si>
   <si>
@@ -474,6 +528,9 @@
     <t>RG-KEM ( SACHET OF 6.5GM) 6.5g</t>
   </si>
   <si>
+    <t>RONFLOX-LB TABLETS (10'S) 10s</t>
+  </si>
+  <si>
     <t>RONFLOX-MZ SUSPENSION (30ML) 30 ml</t>
   </si>
   <si>
@@ -486,6 +543,9 @@
     <t>SULBAKEM-C 1.5 G INJECTION (VI 20 ml vial</t>
   </si>
   <si>
+    <t>TAMICA-AM 40 TABLETS (15's) 15's</t>
+  </si>
+  <si>
     <t>TAMICA-H 40 TABLETS (15S) 15's</t>
   </si>
   <si>
@@ -496,6 +556,9 @@
   </si>
   <si>
     <t>TEGLIPTIN-M 500MG TABLETS 15'S 15's</t>
+  </si>
+  <si>
+    <t>TRAMEF INJ (2ML) 2ml</t>
   </si>
 </sst>
 </file>
@@ -846,11 +909,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85D1921-5566-44B4-99A4-5A9C983FB4D9}">
-  <dimension ref="A1:E149"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87830AC0-1C0D-4E79-93FF-CFB1AA46BEE3}">
+  <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection sqref="A1:E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,13 +957,13 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>4340</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D3">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -911,13 +974,13 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1300</v>
+        <v>4340</v>
       </c>
       <c r="C4">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="D4">
-        <v>16.75</v>
+        <v>8.25</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -928,13 +991,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1130</v>
+        <v>1300</v>
       </c>
       <c r="C5">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>16.75</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -945,13 +1008,13 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1180</v>
+        <v>1130</v>
       </c>
       <c r="C6">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="D6">
-        <v>19.350000000000001</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -962,13 +1025,13 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>540</v>
+        <v>1180</v>
       </c>
       <c r="C7">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="D7">
-        <v>18.25</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -979,13 +1042,13 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>1140</v>
+        <v>540</v>
       </c>
       <c r="C8">
-        <v>229</v>
+        <v>104</v>
       </c>
       <c r="D8">
-        <v>46</v>
+        <v>18.25</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -996,13 +1059,13 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>3400</v>
+        <v>1140</v>
       </c>
       <c r="C9">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="D9">
-        <v>5.5</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -1013,13 +1076,13 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>37961</v>
+        <v>3400</v>
       </c>
       <c r="C10">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>13.3</v>
+        <v>5.5</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -1030,13 +1093,13 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>220</v>
+        <v>37961</v>
       </c>
       <c r="C11">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D11">
-        <v>26.5</v>
+        <v>13.3</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -1047,13 +1110,13 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C12">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="D12">
-        <v>59.25</v>
+        <v>26.5</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -1064,13 +1127,13 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>1730</v>
+        <v>200</v>
       </c>
       <c r="C13">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="D13">
-        <v>18.5</v>
+        <v>59.25</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -1081,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>3671</v>
+        <v>1730</v>
       </c>
       <c r="C14">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D14">
-        <v>11.75</v>
+        <v>18.5</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -1098,13 +1161,13 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>61</v>
+        <v>3671</v>
       </c>
       <c r="C15">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D15">
-        <v>17.25</v>
+        <v>11.75</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -1115,13 +1178,13 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>17.25</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -1132,13 +1195,13 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>4027</v>
+        <v>60</v>
       </c>
       <c r="C17">
-        <v>30.24</v>
+        <v>46</v>
       </c>
       <c r="D17">
-        <v>21.75</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -1149,13 +1212,13 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>138843</v>
+        <v>4027</v>
       </c>
       <c r="C18">
-        <v>11.4</v>
+        <v>30.24</v>
       </c>
       <c r="D18">
-        <v>5.25</v>
+        <v>21.75</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -1166,13 +1229,13 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>1704</v>
+        <v>138843</v>
       </c>
       <c r="C19">
-        <v>34.72</v>
+        <v>11.4</v>
       </c>
       <c r="D19">
-        <v>22.25</v>
+        <v>5.25</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -1183,13 +1246,13 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>40410</v>
+        <v>1704</v>
       </c>
       <c r="C20">
-        <v>23.52</v>
+        <v>34.72</v>
       </c>
       <c r="D20">
-        <v>11.25</v>
+        <v>22.25</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
@@ -1200,13 +1263,13 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>16440</v>
+        <v>40410</v>
       </c>
       <c r="C21">
-        <v>31.5</v>
+        <v>23.52</v>
       </c>
       <c r="D21">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
@@ -1217,7 +1280,7 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>23520</v>
+        <v>16440</v>
       </c>
       <c r="C22">
         <v>31.5</v>
@@ -1234,13 +1297,13 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>23520</v>
       </c>
       <c r="C23">
-        <v>115</v>
+        <v>31.5</v>
       </c>
       <c r="D23">
-        <v>30.5</v>
+        <v>12.5</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -1251,13 +1314,13 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>882</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>465</v>
+        <v>140</v>
       </c>
       <c r="D24">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
@@ -1268,13 +1331,13 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>3660</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>576</v>
+        <v>115</v>
       </c>
       <c r="D25">
-        <v>115</v>
+        <v>30.5</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
@@ -1285,13 +1348,13 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>634</v>
+        <v>882</v>
       </c>
       <c r="C26">
-        <v>93</v>
+        <v>465</v>
       </c>
       <c r="D26">
-        <v>17.25</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
         <v>6</v>
@@ -1302,13 +1365,13 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>14439</v>
+        <v>3660</v>
       </c>
       <c r="C27">
-        <v>47.03</v>
+        <v>576</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -1319,13 +1382,13 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C28">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D28">
-        <v>21.5</v>
+        <v>17.25</v>
       </c>
       <c r="E28" t="s">
         <v>6</v>
@@ -1336,13 +1399,13 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>4680</v>
+        <v>14439</v>
       </c>
       <c r="C29">
-        <v>36</v>
+        <v>47.03</v>
       </c>
       <c r="D29">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
@@ -1353,13 +1416,13 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>11520</v>
+        <v>640</v>
       </c>
       <c r="C30">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D30">
-        <v>6.5</v>
+        <v>21.5</v>
       </c>
       <c r="E30" t="s">
         <v>6</v>
@@ -1370,13 +1433,13 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>-20</v>
+        <v>4680</v>
       </c>
       <c r="C31">
-        <v>493.75</v>
+        <v>36</v>
       </c>
       <c r="D31">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -1387,13 +1450,13 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>680</v>
+        <v>11520</v>
       </c>
       <c r="C32">
-        <v>333.5</v>
+        <v>64</v>
       </c>
       <c r="D32">
-        <v>55.75</v>
+        <v>6.5</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
@@ -1404,13 +1467,13 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>1152</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D33">
-        <v>13.25</v>
+        <v>6.5</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
@@ -1421,13 +1484,13 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>22.25</v>
       </c>
       <c r="E34" t="s">
         <v>6</v>
@@ -1438,13 +1501,13 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>1285</v>
+        <v>-20</v>
       </c>
       <c r="C35">
-        <v>23.32</v>
+        <v>493.75</v>
       </c>
       <c r="D35">
-        <v>7.75</v>
+        <v>97</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
@@ -1455,13 +1518,13 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>4950</v>
+        <v>680</v>
       </c>
       <c r="C36">
-        <v>67.87</v>
+        <v>333.5</v>
       </c>
       <c r="D36">
-        <v>17.75</v>
+        <v>55.75</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
@@ -1472,13 +1535,13 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>880</v>
+        <v>1152</v>
       </c>
       <c r="C37">
-        <v>33.549999999999997</v>
+        <v>72</v>
       </c>
       <c r="D37">
-        <v>10.75</v>
+        <v>13.25</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
@@ -1489,13 +1552,13 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>900</v>
+        <v>50</v>
       </c>
       <c r="C38">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D38">
-        <v>38.5</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
@@ -1506,13 +1569,13 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1285</v>
       </c>
       <c r="C39">
-        <v>447.31</v>
+        <v>23.32</v>
       </c>
       <c r="D39">
-        <v>62</v>
+        <v>7.75</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
@@ -1523,13 +1586,13 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>504</v>
+        <v>4950</v>
       </c>
       <c r="C40">
-        <v>99</v>
+        <v>67.87</v>
       </c>
       <c r="D40">
-        <v>28.75</v>
+        <v>17.75</v>
       </c>
       <c r="E40" t="s">
         <v>6</v>
@@ -1540,13 +1603,13 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>4780</v>
+        <v>880</v>
       </c>
       <c r="C41">
-        <v>80</v>
+        <v>33.549999999999997</v>
       </c>
       <c r="D41">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="E41" t="s">
         <v>6</v>
@@ -1557,13 +1620,13 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>920</v>
+        <v>900</v>
       </c>
       <c r="C42">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="D42">
-        <v>8.5</v>
+        <v>38.5</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -1574,13 +1637,13 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>2752</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>28</v>
+        <v>447.31</v>
       </c>
       <c r="D43">
-        <v>2.75</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
@@ -1591,13 +1654,13 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>60</v>
+        <v>504</v>
       </c>
       <c r="C44">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="D44">
-        <v>17.5</v>
+        <v>28.75</v>
       </c>
       <c r="E44" t="s">
         <v>6</v>
@@ -1608,13 +1671,13 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>1035</v>
+        <v>4780</v>
       </c>
       <c r="C45">
-        <v>55.33</v>
+        <v>80</v>
       </c>
       <c r="D45">
-        <v>7.25</v>
+        <v>11.25</v>
       </c>
       <c r="E45" t="s">
         <v>6</v>
@@ -1625,13 +1688,13 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>429</v>
+        <v>920</v>
       </c>
       <c r="C46">
-        <v>140.63999999999999</v>
+        <v>84</v>
       </c>
       <c r="D46">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
@@ -1642,13 +1705,13 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>1185</v>
+        <v>2752</v>
       </c>
       <c r="C47">
-        <v>216.12</v>
+        <v>28</v>
       </c>
       <c r="D47">
-        <v>17</v>
+        <v>2.75</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -1659,13 +1722,13 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
@@ -1676,13 +1739,13 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>580</v>
+        <v>1035</v>
       </c>
       <c r="C49">
-        <v>162</v>
+        <v>55.33</v>
       </c>
       <c r="D49">
-        <v>23.5</v>
+        <v>7.25</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
@@ -1693,13 +1756,13 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>1272</v>
+        <v>429</v>
       </c>
       <c r="C50">
-        <v>256.95</v>
+        <v>140.63999999999999</v>
       </c>
       <c r="D50">
-        <v>26.75</v>
+        <v>10.5</v>
       </c>
       <c r="E50" t="s">
         <v>6</v>
@@ -1710,13 +1773,13 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>5584</v>
+        <v>1185</v>
       </c>
       <c r="C51">
-        <v>477.15</v>
+        <v>216.12</v>
       </c>
       <c r="D51">
-        <v>30.75</v>
+        <v>17</v>
       </c>
       <c r="E51" t="s">
         <v>6</v>
@@ -1727,13 +1790,13 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>1620</v>
+        <v>360</v>
       </c>
       <c r="C52">
-        <v>254.52</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E52" t="s">
         <v>6</v>
@@ -1744,13 +1807,13 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>1486</v>
+        <v>580</v>
       </c>
       <c r="C53">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="D53">
-        <v>25.25</v>
+        <v>23.5</v>
       </c>
       <c r="E53" t="s">
         <v>6</v>
@@ -1761,13 +1824,13 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>362</v>
+        <v>1272</v>
       </c>
       <c r="C54">
-        <v>130</v>
+        <v>256.95</v>
       </c>
       <c r="D54">
-        <v>40.5</v>
+        <v>26.75</v>
       </c>
       <c r="E54" t="s">
         <v>6</v>
@@ -1778,13 +1841,13 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>165</v>
+        <v>5584</v>
       </c>
       <c r="C55">
-        <v>90</v>
+        <v>477.15</v>
       </c>
       <c r="D55">
-        <v>19.75</v>
+        <v>30.75</v>
       </c>
       <c r="E55" t="s">
         <v>6</v>
@@ -1795,13 +1858,13 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>900</v>
+        <v>1620</v>
       </c>
       <c r="C56">
-        <v>80</v>
+        <v>254.52</v>
       </c>
       <c r="D56">
-        <v>11.5</v>
+        <v>36</v>
       </c>
       <c r="E56" t="s">
         <v>6</v>
@@ -1812,13 +1875,13 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>780</v>
+        <v>1486</v>
       </c>
       <c r="C57">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="D57">
-        <v>25.75</v>
+        <v>25.25</v>
       </c>
       <c r="E57" t="s">
         <v>6</v>
@@ -1829,13 +1892,13 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>1160</v>
+        <v>362</v>
       </c>
       <c r="C58">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="D58">
-        <v>18.25</v>
+        <v>40.5</v>
       </c>
       <c r="E58" t="s">
         <v>6</v>
@@ -1846,13 +1909,13 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>5750</v>
+        <v>165</v>
       </c>
       <c r="C59">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="D59">
-        <v>4.25</v>
+        <v>19.75</v>
       </c>
       <c r="E59" t="s">
         <v>6</v>
@@ -1863,13 +1926,13 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="C60">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="D60">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="E60" t="s">
         <v>6</v>
@@ -1880,13 +1943,13 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>1160</v>
+        <v>780</v>
       </c>
       <c r="C61">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D61">
-        <v>19</v>
+        <v>25.75</v>
       </c>
       <c r="E61" t="s">
         <v>6</v>
@@ -1897,13 +1960,13 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>837</v>
+        <v>1160</v>
       </c>
       <c r="C62">
-        <v>385</v>
+        <v>99</v>
       </c>
       <c r="D62">
-        <v>35</v>
+        <v>18.25</v>
       </c>
       <c r="E62" t="s">
         <v>6</v>
@@ -1914,13 +1977,13 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>420389</v>
+        <v>5750</v>
       </c>
       <c r="C63">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="E63" t="s">
         <v>6</v>
@@ -1931,13 +1994,13 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>153164</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>5.68</v>
+        <v>198</v>
       </c>
       <c r="D64">
-        <v>2.5</v>
+        <v>13.2</v>
       </c>
       <c r="E64" t="s">
         <v>6</v>
@@ -1951,10 +2014,10 @@
         <v>500</v>
       </c>
       <c r="C65">
-        <v>44</v>
+        <v>275</v>
       </c>
       <c r="D65">
-        <v>5.25</v>
+        <v>15.5</v>
       </c>
       <c r="E65" t="s">
         <v>6</v>
@@ -1965,13 +2028,13 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>1650</v>
+        <v>1160</v>
       </c>
       <c r="C66">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="D66">
-        <v>5.25</v>
+        <v>19</v>
       </c>
       <c r="E66" t="s">
         <v>6</v>
@@ -1982,13 +2045,13 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>2707</v>
+        <v>837</v>
       </c>
       <c r="C67">
-        <v>99</v>
+        <v>385</v>
       </c>
       <c r="D67">
-        <v>15.5</v>
+        <v>35</v>
       </c>
       <c r="E67" t="s">
         <v>6</v>
@@ -1999,13 +2062,13 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>425</v>
+        <v>420389</v>
       </c>
       <c r="C68">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="D68">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E68" t="s">
         <v>6</v>
@@ -2016,13 +2079,13 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>11372</v>
+        <v>153164</v>
       </c>
       <c r="C69">
-        <v>38</v>
+        <v>5.68</v>
       </c>
       <c r="D69">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="E69" t="s">
         <v>6</v>
@@ -2033,13 +2096,13 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>2040</v>
+        <v>500</v>
       </c>
       <c r="C70">
-        <v>285</v>
+        <v>44</v>
       </c>
       <c r="D70">
-        <v>37.75</v>
+        <v>5.25</v>
       </c>
       <c r="E70" t="s">
         <v>6</v>
@@ -2050,13 +2113,13 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>542</v>
+        <v>1650</v>
       </c>
       <c r="C71">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="D71">
-        <v>24.25</v>
+        <v>5.25</v>
       </c>
       <c r="E71" t="s">
         <v>6</v>
@@ -2067,13 +2130,13 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>4179</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>321.48</v>
+        <v>44</v>
       </c>
       <c r="D72">
-        <v>26</v>
+        <v>5.25</v>
       </c>
       <c r="E72" t="s">
         <v>6</v>
@@ -2084,13 +2147,13 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>290</v>
+        <v>2707</v>
       </c>
       <c r="C73">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D73">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="E73" t="s">
         <v>6</v>
@@ -2101,13 +2164,13 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="D74">
-        <v>32.75</v>
+        <v>15.5</v>
       </c>
       <c r="E74" t="s">
         <v>6</v>
@@ -2118,13 +2181,13 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="C75">
-        <v>230</v>
+        <v>88</v>
       </c>
       <c r="D75">
-        <v>42.5</v>
+        <v>14</v>
       </c>
       <c r="E75" t="s">
         <v>6</v>
@@ -2135,13 +2198,13 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>14599</v>
+        <v>11372</v>
       </c>
       <c r="C76">
-        <v>71.98</v>
+        <v>38</v>
       </c>
       <c r="D76">
-        <v>14.5</v>
+        <v>3.75</v>
       </c>
       <c r="E76" t="s">
         <v>6</v>
@@ -2152,13 +2215,13 @@
         <v>81</v>
       </c>
       <c r="B77">
-        <v>3825</v>
+        <v>2040</v>
       </c>
       <c r="C77">
-        <v>84</v>
+        <v>285</v>
       </c>
       <c r="D77">
-        <v>20</v>
+        <v>37.75</v>
       </c>
       <c r="E77" t="s">
         <v>6</v>
@@ -2169,13 +2232,13 @@
         <v>82</v>
       </c>
       <c r="B78">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0.01</v>
+        <v>181</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E78" t="s">
         <v>6</v>
@@ -2186,13 +2249,13 @@
         <v>83</v>
       </c>
       <c r="B79">
-        <v>36</v>
+        <v>542</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>24.25</v>
       </c>
       <c r="E79" t="s">
         <v>6</v>
@@ -2203,13 +2266,13 @@
         <v>84</v>
       </c>
       <c r="B80">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>0.01</v>
+        <v>165</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="E80" t="s">
         <v>6</v>
@@ -2220,13 +2283,13 @@
         <v>85</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>4179</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>321.48</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E81" t="s">
         <v>6</v>
@@ -2237,13 +2300,13 @@
         <v>86</v>
       </c>
       <c r="B82">
-        <v>211</v>
+        <v>290</v>
       </c>
       <c r="C82">
-        <v>1799</v>
+        <v>150</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E82" t="s">
         <v>6</v>
@@ -2254,13 +2317,13 @@
         <v>87</v>
       </c>
       <c r="B83">
-        <v>31496</v>
+        <v>1020</v>
       </c>
       <c r="C83">
-        <v>12.59</v>
+        <v>214</v>
       </c>
       <c r="D83">
-        <v>7.75</v>
+        <v>32.75</v>
       </c>
       <c r="E83" t="s">
         <v>6</v>
@@ -2271,13 +2334,13 @@
         <v>88</v>
       </c>
       <c r="B84">
-        <v>40</v>
+        <v>450</v>
       </c>
       <c r="C84">
-        <v>124.09</v>
+        <v>230</v>
       </c>
       <c r="D84">
-        <v>17</v>
+        <v>42.5</v>
       </c>
       <c r="E84" t="s">
         <v>6</v>
@@ -2288,13 +2351,13 @@
         <v>89</v>
       </c>
       <c r="B85">
-        <v>5200</v>
+        <v>14599</v>
       </c>
       <c r="C85">
-        <v>5.31</v>
+        <v>71.98</v>
       </c>
       <c r="D85">
-        <v>3.25</v>
+        <v>14.5</v>
       </c>
       <c r="E85" t="s">
         <v>6</v>
@@ -2305,13 +2368,13 @@
         <v>90</v>
       </c>
       <c r="B86">
-        <v>1890</v>
+        <v>3825</v>
       </c>
       <c r="C86">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D86">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E86" t="s">
         <v>6</v>
@@ -2322,13 +2385,13 @@
         <v>91</v>
       </c>
       <c r="B87">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="C87">
-        <v>171</v>
+        <v>0.01</v>
       </c>
       <c r="D87">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="E87" t="s">
         <v>6</v>
@@ -2339,13 +2402,13 @@
         <v>92</v>
       </c>
       <c r="B88">
-        <v>330</v>
+        <v>36</v>
       </c>
       <c r="C88">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E88" t="s">
         <v>6</v>
@@ -2356,13 +2419,13 @@
         <v>93</v>
       </c>
       <c r="B89">
-        <v>1090</v>
+        <v>17</v>
       </c>
       <c r="C89">
-        <v>305.5</v>
+        <v>0.01</v>
       </c>
       <c r="D89">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E89" t="s">
         <v>6</v>
@@ -2373,13 +2436,13 @@
         <v>94</v>
       </c>
       <c r="B90">
-        <v>12401</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E90" t="s">
         <v>6</v>
@@ -2390,13 +2453,13 @@
         <v>95</v>
       </c>
       <c r="B91">
-        <v>1225</v>
+        <v>211</v>
       </c>
       <c r="C91">
-        <v>102</v>
+        <v>1799</v>
       </c>
       <c r="D91">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="E91" t="s">
         <v>6</v>
@@ -2407,13 +2470,13 @@
         <v>96</v>
       </c>
       <c r="B92">
-        <v>1461</v>
+        <v>31496</v>
       </c>
       <c r="C92">
-        <v>36</v>
+        <v>12.59</v>
       </c>
       <c r="D92">
-        <v>4.75</v>
+        <v>7.75</v>
       </c>
       <c r="E92" t="s">
         <v>6</v>
@@ -2424,13 +2487,13 @@
         <v>97</v>
       </c>
       <c r="B93">
-        <v>720</v>
+        <v>40</v>
       </c>
       <c r="C93">
-        <v>114</v>
+        <v>124.09</v>
       </c>
       <c r="D93">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E93" t="s">
         <v>6</v>
@@ -2441,13 +2504,13 @@
         <v>98</v>
       </c>
       <c r="B94">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="D94">
-        <v>44.75</v>
+        <v>28.5</v>
       </c>
       <c r="E94" t="s">
         <v>6</v>
@@ -2458,13 +2521,13 @@
         <v>99</v>
       </c>
       <c r="B95">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>363</v>
+        <v>140</v>
       </c>
       <c r="D95">
-        <v>70</v>
+        <v>23.25</v>
       </c>
       <c r="E95" t="s">
         <v>6</v>
@@ -2475,13 +2538,13 @@
         <v>100</v>
       </c>
       <c r="B96">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>370</v>
+        <v>94</v>
       </c>
       <c r="D96">
-        <v>92</v>
+        <v>25.5</v>
       </c>
       <c r="E96" t="s">
         <v>6</v>
@@ -2492,13 +2555,13 @@
         <v>101</v>
       </c>
       <c r="B97">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>555</v>
+        <v>125</v>
       </c>
       <c r="D97">
-        <v>138</v>
+        <v>47.5</v>
       </c>
       <c r="E97" t="s">
         <v>6</v>
@@ -2509,13 +2572,13 @@
         <v>102</v>
       </c>
       <c r="B98">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="D98">
-        <v>6.75</v>
+        <v>47.5</v>
       </c>
       <c r="E98" t="s">
         <v>6</v>
@@ -2526,13 +2589,13 @@
         <v>103</v>
       </c>
       <c r="B99">
-        <v>1260</v>
+        <v>5200</v>
       </c>
       <c r="C99">
-        <v>99.7</v>
+        <v>5.31</v>
       </c>
       <c r="D99">
-        <v>14.5</v>
+        <v>3.25</v>
       </c>
       <c r="E99" t="s">
         <v>6</v>
@@ -2543,13 +2606,13 @@
         <v>104</v>
       </c>
       <c r="B100">
-        <v>2239</v>
+        <v>1890</v>
       </c>
       <c r="C100">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="D100">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="E100" t="s">
         <v>6</v>
@@ -2560,13 +2623,13 @@
         <v>105</v>
       </c>
       <c r="B101">
-        <v>11320</v>
+        <v>210</v>
       </c>
       <c r="C101">
-        <v>50.5</v>
+        <v>171</v>
       </c>
       <c r="D101">
-        <v>18</v>
+        <v>18.75</v>
       </c>
       <c r="E101" t="s">
         <v>6</v>
@@ -2577,13 +2640,13 @@
         <v>106</v>
       </c>
       <c r="B102">
-        <v>22790</v>
+        <v>330</v>
       </c>
       <c r="C102">
-        <v>113.76</v>
+        <v>348</v>
       </c>
       <c r="D102">
-        <v>22.5</v>
+        <v>28</v>
       </c>
       <c r="E102" t="s">
         <v>6</v>
@@ -2594,13 +2657,13 @@
         <v>107</v>
       </c>
       <c r="B103">
-        <v>3175</v>
+        <v>1090</v>
       </c>
       <c r="C103">
-        <v>78</v>
+        <v>305.5</v>
       </c>
       <c r="D103">
-        <v>12.25</v>
+        <v>32</v>
       </c>
       <c r="E103" t="s">
         <v>6</v>
@@ -2611,13 +2674,13 @@
         <v>108</v>
       </c>
       <c r="B104">
-        <v>1200</v>
+        <v>12401</v>
       </c>
       <c r="C104">
-        <v>113.62</v>
+        <v>27</v>
       </c>
       <c r="D104">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E104" t="s">
         <v>6</v>
@@ -2628,13 +2691,13 @@
         <v>109</v>
       </c>
       <c r="B105">
-        <v>720</v>
+        <v>1225</v>
       </c>
       <c r="C105">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D105">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="E105" t="s">
         <v>6</v>
@@ -2645,13 +2708,13 @@
         <v>110</v>
       </c>
       <c r="B106">
-        <v>216</v>
+        <v>1461</v>
       </c>
       <c r="C106">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="D106">
-        <v>24.25</v>
+        <v>4.75</v>
       </c>
       <c r="E106" t="s">
         <v>6</v>
@@ -2662,13 +2725,13 @@
         <v>111</v>
       </c>
       <c r="B107">
-        <v>331</v>
+        <v>720</v>
       </c>
       <c r="C107">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D107">
-        <v>24.5</v>
+        <v>31</v>
       </c>
       <c r="E107" t="s">
         <v>6</v>
@@ -2679,13 +2742,13 @@
         <v>112</v>
       </c>
       <c r="B108">
-        <v>1404</v>
+        <v>310</v>
       </c>
       <c r="C108">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c r="D108">
-        <v>27</v>
+        <v>44.75</v>
       </c>
       <c r="E108" t="s">
         <v>6</v>
@@ -2696,13 +2759,13 @@
         <v>113</v>
       </c>
       <c r="B109">
-        <v>648</v>
+        <v>150</v>
       </c>
       <c r="C109">
-        <v>132</v>
+        <v>363</v>
       </c>
       <c r="D109">
-        <v>18.75</v>
+        <v>70</v>
       </c>
       <c r="E109" t="s">
         <v>6</v>
@@ -2713,13 +2776,13 @@
         <v>114</v>
       </c>
       <c r="B110">
-        <v>612</v>
+        <v>179</v>
       </c>
       <c r="C110">
-        <v>126</v>
+        <v>370</v>
       </c>
       <c r="D110">
-        <v>23.75</v>
+        <v>92</v>
       </c>
       <c r="E110" t="s">
         <v>6</v>
@@ -2730,13 +2793,13 @@
         <v>115</v>
       </c>
       <c r="B111">
-        <v>1250</v>
+        <v>429</v>
       </c>
       <c r="C111">
-        <v>114</v>
+        <v>555</v>
       </c>
       <c r="D111">
-        <v>11.25</v>
+        <v>138</v>
       </c>
       <c r="E111" t="s">
         <v>6</v>
@@ -2747,13 +2810,13 @@
         <v>116</v>
       </c>
       <c r="B112">
-        <v>100</v>
+        <v>3500</v>
       </c>
       <c r="C112">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D112">
-        <v>8</v>
+        <v>6.75</v>
       </c>
       <c r="E112" t="s">
         <v>6</v>
@@ -2764,13 +2827,13 @@
         <v>117</v>
       </c>
       <c r="B113">
-        <v>1684</v>
+        <v>1260</v>
       </c>
       <c r="C113">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="D113">
-        <v>20.5</v>
+        <v>14.5</v>
       </c>
       <c r="E113" t="s">
         <v>6</v>
@@ -2781,10 +2844,10 @@
         <v>118</v>
       </c>
       <c r="B114">
-        <v>2150</v>
+        <v>2239</v>
       </c>
       <c r="C114">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D114">
         <v>10.75</v>
@@ -2798,13 +2861,13 @@
         <v>119</v>
       </c>
       <c r="B115">
-        <v>54490</v>
+        <v>11320</v>
       </c>
       <c r="C115">
-        <v>6.5</v>
+        <v>50.5</v>
       </c>
       <c r="D115">
-        <v>2.75</v>
+        <v>18</v>
       </c>
       <c r="E115" t="s">
         <v>6</v>
@@ -2815,13 +2878,13 @@
         <v>120</v>
       </c>
       <c r="B116">
-        <v>4870</v>
+        <v>22790</v>
       </c>
       <c r="C116">
-        <v>45</v>
+        <v>113.76</v>
       </c>
       <c r="D116">
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="E116" t="s">
         <v>6</v>
@@ -2832,13 +2895,13 @@
         <v>121</v>
       </c>
       <c r="B117">
-        <v>720</v>
+        <v>3175</v>
       </c>
       <c r="C117">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="D117">
-        <v>25.25</v>
+        <v>12.25</v>
       </c>
       <c r="E117" t="s">
         <v>6</v>
@@ -2849,13 +2912,13 @@
         <v>122</v>
       </c>
       <c r="B118">
-        <v>4520</v>
+        <v>1200</v>
       </c>
       <c r="C118">
-        <v>48.22</v>
+        <v>113.62</v>
       </c>
       <c r="D118">
-        <v>10.5</v>
+        <v>26</v>
       </c>
       <c r="E118" t="s">
         <v>6</v>
@@ -2866,13 +2929,13 @@
         <v>123</v>
       </c>
       <c r="B119">
-        <v>36968</v>
+        <v>720</v>
       </c>
       <c r="C119">
-        <v>13.35</v>
+        <v>118</v>
       </c>
       <c r="D119">
-        <v>2.75</v>
+        <v>23</v>
       </c>
       <c r="E119" t="s">
         <v>6</v>
@@ -2883,13 +2946,13 @@
         <v>124</v>
       </c>
       <c r="B120">
-        <v>36520</v>
+        <v>216</v>
       </c>
       <c r="C120">
-        <v>57.51</v>
+        <v>121</v>
       </c>
       <c r="D120">
-        <v>4.2</v>
+        <v>24.25</v>
       </c>
       <c r="E120" t="s">
         <v>6</v>
@@ -2900,13 +2963,13 @@
         <v>125</v>
       </c>
       <c r="B121">
-        <v>4448</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>42.19</v>
+        <v>110</v>
       </c>
       <c r="D121">
-        <v>11</v>
+        <v>21.25</v>
       </c>
       <c r="E121" t="s">
         <v>6</v>
@@ -2917,13 +2980,13 @@
         <v>126</v>
       </c>
       <c r="B122">
-        <v>1273</v>
+        <v>331</v>
       </c>
       <c r="C122">
-        <v>40.68</v>
+        <v>103</v>
       </c>
       <c r="D122">
-        <v>10.8</v>
+        <v>24.5</v>
       </c>
       <c r="E122" t="s">
         <v>6</v>
@@ -2934,13 +2997,13 @@
         <v>127</v>
       </c>
       <c r="B123">
-        <v>333</v>
+        <v>1404</v>
       </c>
       <c r="C123">
-        <v>45.02</v>
+        <v>121</v>
       </c>
       <c r="D123">
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="E123" t="s">
         <v>6</v>
@@ -2951,13 +3014,13 @@
         <v>128</v>
       </c>
       <c r="B124">
-        <v>1060</v>
+        <v>648</v>
       </c>
       <c r="C124">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="D124">
-        <v>13</v>
+        <v>18.75</v>
       </c>
       <c r="E124" t="s">
         <v>6</v>
@@ -2968,13 +3031,13 @@
         <v>129</v>
       </c>
       <c r="B125">
-        <v>82083</v>
+        <v>612</v>
       </c>
       <c r="C125">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="D125">
-        <v>20</v>
+        <v>23.75</v>
       </c>
       <c r="E125" t="s">
         <v>6</v>
@@ -2985,13 +3048,13 @@
         <v>130</v>
       </c>
       <c r="B126">
-        <v>3060</v>
+        <v>1250</v>
       </c>
       <c r="C126">
-        <v>14.95</v>
+        <v>114</v>
       </c>
       <c r="D126">
-        <v>6.45</v>
+        <v>11.25</v>
       </c>
       <c r="E126" t="s">
         <v>6</v>
@@ -3002,13 +3065,13 @@
         <v>131</v>
       </c>
       <c r="B127">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="C127">
-        <v>10.039999999999999</v>
+        <v>68</v>
       </c>
       <c r="D127">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="E127" t="s">
         <v>6</v>
@@ -3019,13 +3082,13 @@
         <v>132</v>
       </c>
       <c r="B128">
-        <v>2200</v>
+        <v>1684</v>
       </c>
       <c r="C128">
-        <v>10.039999999999999</v>
+        <v>100</v>
       </c>
       <c r="D128">
-        <v>4.5</v>
+        <v>20.5</v>
       </c>
       <c r="E128" t="s">
         <v>6</v>
@@ -3036,13 +3099,13 @@
         <v>133</v>
       </c>
       <c r="B129">
-        <v>8380</v>
+        <v>2150</v>
       </c>
       <c r="C129">
-        <v>44.96</v>
+        <v>56</v>
       </c>
       <c r="D129">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="E129" t="s">
         <v>6</v>
@@ -3053,13 +3116,13 @@
         <v>134</v>
       </c>
       <c r="B130">
-        <v>3356</v>
+        <v>54490</v>
       </c>
       <c r="C130">
-        <v>198</v>
+        <v>6.5</v>
       </c>
       <c r="D130">
-        <v>25.25</v>
+        <v>2.75</v>
       </c>
       <c r="E130" t="s">
         <v>6</v>
@@ -3070,13 +3133,13 @@
         <v>135</v>
       </c>
       <c r="B131">
-        <v>3504</v>
+        <v>4870</v>
       </c>
       <c r="C131">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D131">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E131" t="s">
         <v>6</v>
@@ -3087,13 +3150,13 @@
         <v>136</v>
       </c>
       <c r="B132">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="C132">
-        <v>477.64</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>173.25</v>
+        <v>0</v>
       </c>
       <c r="E132" t="s">
         <v>6</v>
@@ -3104,13 +3167,13 @@
         <v>137</v>
       </c>
       <c r="B133">
-        <v>25</v>
+        <v>720</v>
       </c>
       <c r="C133">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="D133">
-        <v>13.75</v>
+        <v>25.25</v>
       </c>
       <c r="E133" t="s">
         <v>6</v>
@@ -3121,13 +3184,13 @@
         <v>138</v>
       </c>
       <c r="B134">
-        <v>4970</v>
+        <v>4520</v>
       </c>
       <c r="C134">
-        <v>396</v>
+        <v>48.22</v>
       </c>
       <c r="D134">
-        <v>54.5</v>
+        <v>10.5</v>
       </c>
       <c r="E134" t="s">
         <v>6</v>
@@ -3138,13 +3201,13 @@
         <v>139</v>
       </c>
       <c r="B135">
-        <v>480</v>
+        <v>36968</v>
       </c>
       <c r="C135">
-        <v>56</v>
+        <v>13.35</v>
       </c>
       <c r="D135">
-        <v>12.5</v>
+        <v>2.75</v>
       </c>
       <c r="E135" t="s">
         <v>6</v>
@@ -3155,13 +3218,13 @@
         <v>140</v>
       </c>
       <c r="B136">
-        <v>3080</v>
+        <v>36520</v>
       </c>
       <c r="C136">
-        <v>51.14</v>
+        <v>57.51</v>
       </c>
       <c r="D136">
-        <v>24.75</v>
+        <v>4.2</v>
       </c>
       <c r="E136" t="s">
         <v>6</v>
@@ -3172,13 +3235,13 @@
         <v>141</v>
       </c>
       <c r="B137">
-        <v>50</v>
+        <v>4448</v>
       </c>
       <c r="C137">
-        <v>0.1</v>
+        <v>42.19</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
         <v>6</v>
@@ -3189,13 +3252,13 @@
         <v>142</v>
       </c>
       <c r="B138">
-        <v>4935</v>
+        <v>1273</v>
       </c>
       <c r="C138">
-        <v>8.89</v>
+        <v>40.68</v>
       </c>
       <c r="D138">
-        <v>4.5</v>
+        <v>10.8</v>
       </c>
       <c r="E138" t="s">
         <v>6</v>
@@ -3206,13 +3269,13 @@
         <v>143</v>
       </c>
       <c r="B139">
-        <v>13155</v>
+        <v>333</v>
       </c>
       <c r="C139">
-        <v>198</v>
+        <v>45.02</v>
       </c>
       <c r="D139">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="E139" t="s">
         <v>6</v>
@@ -3223,13 +3286,13 @@
         <v>144</v>
       </c>
       <c r="B140">
-        <v>9160</v>
+        <v>1060</v>
       </c>
       <c r="C140">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="D140">
-        <v>16.75</v>
+        <v>13</v>
       </c>
       <c r="E140" t="s">
         <v>6</v>
@@ -3240,13 +3303,13 @@
         <v>145</v>
       </c>
       <c r="B141">
-        <v>6031</v>
+        <v>82083</v>
       </c>
       <c r="C141">
-        <v>70</v>
+        <v>276</v>
       </c>
       <c r="D141">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E141" t="s">
         <v>6</v>
@@ -3257,13 +3320,13 @@
         <v>146</v>
       </c>
       <c r="B142">
-        <v>531</v>
+        <v>3060</v>
       </c>
       <c r="C142">
-        <v>88</v>
+        <v>14.95</v>
       </c>
       <c r="D142">
-        <v>15.5</v>
+        <v>6.45</v>
       </c>
       <c r="E142" t="s">
         <v>6</v>
@@ -3274,13 +3337,13 @@
         <v>147</v>
       </c>
       <c r="B143">
-        <v>2120</v>
+        <v>800</v>
       </c>
       <c r="C143">
-        <v>365</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="D143">
-        <v>39.25</v>
+        <v>4.5</v>
       </c>
       <c r="E143" t="s">
         <v>6</v>
@@ -3291,13 +3354,13 @@
         <v>148</v>
       </c>
       <c r="B144">
-        <v>1275</v>
+        <v>2200</v>
       </c>
       <c r="C144">
-        <v>60</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="D144">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="E144" t="s">
         <v>6</v>
@@ -3308,13 +3371,13 @@
         <v>149</v>
       </c>
       <c r="B145">
-        <v>7456</v>
+        <v>0</v>
       </c>
       <c r="C145">
-        <v>360</v>
+        <v>20.05</v>
       </c>
       <c r="D145">
-        <v>45.5</v>
+        <v>6.5</v>
       </c>
       <c r="E145" t="s">
         <v>6</v>
@@ -3325,10 +3388,10 @@
         <v>150</v>
       </c>
       <c r="B146">
-        <v>940</v>
+        <v>8380</v>
       </c>
       <c r="C146">
-        <v>165</v>
+        <v>44.96</v>
       </c>
       <c r="D146">
         <v>11</v>
@@ -3342,13 +3405,13 @@
         <v>151</v>
       </c>
       <c r="B147">
-        <v>980</v>
+        <v>3356</v>
       </c>
       <c r="C147">
-        <v>182.47</v>
+        <v>198</v>
       </c>
       <c r="D147">
-        <v>14</v>
+        <v>25.25</v>
       </c>
       <c r="E147" t="s">
         <v>6</v>
@@ -3359,13 +3422,13 @@
         <v>152</v>
       </c>
       <c r="B148">
-        <v>160</v>
+        <v>3504</v>
       </c>
       <c r="C148">
-        <v>243</v>
+        <v>70</v>
       </c>
       <c r="D148">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
         <v>6</v>
@@ -3376,15 +3439,372 @@
         <v>153</v>
       </c>
       <c r="B149">
+        <v>319</v>
+      </c>
+      <c r="C149">
+        <v>477.64</v>
+      </c>
+      <c r="D149">
+        <v>173.25</v>
+      </c>
+      <c r="E149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150">
+        <v>25</v>
+      </c>
+      <c r="C150">
+        <v>93</v>
+      </c>
+      <c r="D150">
+        <v>13.75</v>
+      </c>
+      <c r="E150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151">
+        <v>4970</v>
+      </c>
+      <c r="C151">
+        <v>396</v>
+      </c>
+      <c r="D151">
+        <v>54.5</v>
+      </c>
+      <c r="E151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>156</v>
+      </c>
+      <c r="B152">
+        <v>480</v>
+      </c>
+      <c r="C152">
+        <v>56</v>
+      </c>
+      <c r="D152">
+        <v>12.5</v>
+      </c>
+      <c r="E152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>157</v>
+      </c>
+      <c r="B153">
+        <v>3080</v>
+      </c>
+      <c r="C153">
+        <v>51.14</v>
+      </c>
+      <c r="D153">
+        <v>24.75</v>
+      </c>
+      <c r="E153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>62.5</v>
+      </c>
+      <c r="D154">
+        <v>22</v>
+      </c>
+      <c r="E154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>159</v>
+      </c>
+      <c r="B155">
+        <v>50</v>
+      </c>
+      <c r="C155">
+        <v>0.1</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>160</v>
+      </c>
+      <c r="B156">
+        <v>4935</v>
+      </c>
+      <c r="C156">
+        <v>8.89</v>
+      </c>
+      <c r="D156">
+        <v>4.5</v>
+      </c>
+      <c r="E156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>161</v>
+      </c>
+      <c r="B157">
+        <v>13155</v>
+      </c>
+      <c r="C157">
+        <v>198</v>
+      </c>
+      <c r="D157">
+        <v>17</v>
+      </c>
+      <c r="E157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158">
+        <v>9160</v>
+      </c>
+      <c r="C158">
+        <v>253</v>
+      </c>
+      <c r="D158">
+        <v>16.75</v>
+      </c>
+      <c r="E158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>163</v>
+      </c>
+      <c r="B159">
+        <v>6031</v>
+      </c>
+      <c r="C159">
+        <v>70</v>
+      </c>
+      <c r="D159">
+        <v>13</v>
+      </c>
+      <c r="E159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>164</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>99</v>
+      </c>
+      <c r="D160">
+        <v>13.5</v>
+      </c>
+      <c r="E160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>165</v>
+      </c>
+      <c r="B161">
+        <v>531</v>
+      </c>
+      <c r="C161">
+        <v>88</v>
+      </c>
+      <c r="D161">
+        <v>15.5</v>
+      </c>
+      <c r="E161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162">
+        <v>2120</v>
+      </c>
+      <c r="C162">
+        <v>365</v>
+      </c>
+      <c r="D162">
+        <v>39.25</v>
+      </c>
+      <c r="E162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163">
+        <v>1275</v>
+      </c>
+      <c r="C163">
+        <v>60</v>
+      </c>
+      <c r="D163">
+        <v>8.5</v>
+      </c>
+      <c r="E163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164">
+        <v>7456</v>
+      </c>
+      <c r="C164">
+        <v>360</v>
+      </c>
+      <c r="D164">
+        <v>45.5</v>
+      </c>
+      <c r="E164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>169</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>242</v>
+      </c>
+      <c r="D165">
+        <v>17</v>
+      </c>
+      <c r="E165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166">
+        <v>940</v>
+      </c>
+      <c r="C166">
+        <v>165</v>
+      </c>
+      <c r="D166">
+        <v>11</v>
+      </c>
+      <c r="E166" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>171</v>
+      </c>
+      <c r="B167">
+        <v>980</v>
+      </c>
+      <c r="C167">
+        <v>182.47</v>
+      </c>
+      <c r="D167">
+        <v>14</v>
+      </c>
+      <c r="E167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>172</v>
+      </c>
+      <c r="B168">
+        <v>160</v>
+      </c>
+      <c r="C168">
+        <v>243</v>
+      </c>
+      <c r="D168">
+        <v>33</v>
+      </c>
+      <c r="E168" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>173</v>
+      </c>
+      <c r="B169">
         <v>180</v>
       </c>
-      <c r="C149">
+      <c r="C169">
         <v>233</v>
       </c>
-      <c r="D149">
+      <c r="D169">
         <v>24</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>174</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>23.54</v>
+      </c>
+      <c r="D170">
+        <v>4.5</v>
+      </c>
+      <c r="E170" t="s">
         <v>6</v>
       </c>
     </row>
